--- a/juniordah/IDEI/Fisa vanzari Junior DAH 2023.xlsx
+++ b/juniordah/IDEI/Fisa vanzari Junior DAH 2023.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandra\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\juniordah\juniordah\IDEI\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E1FCCE-99C3-4A9F-9CF9-A9A2347FF6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="75">
   <si>
     <t>Nr Crt</t>
   </si>
@@ -54,12 +55,207 @@
   </si>
   <si>
     <t>Fisa Vanzari</t>
+  </si>
+  <si>
+    <t>60 RON</t>
+  </si>
+  <si>
+    <t>Școală</t>
+  </si>
+  <si>
+    <t>Darius Costan</t>
+  </si>
+  <si>
+    <t>Brăduț luminiță</t>
+  </si>
+  <si>
+    <t>Aranjamente cu lumânare</t>
+  </si>
+  <si>
+    <t>90 RON</t>
+  </si>
+  <si>
+    <t>Familie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04.12.2023</t>
+  </si>
+  <si>
+    <t>50 RON</t>
+  </si>
+  <si>
+    <t>Coroniță</t>
+  </si>
+  <si>
+    <t>135 RON</t>
+  </si>
+  <si>
+    <t>15 RON</t>
+  </si>
+  <si>
+    <t>25 RON</t>
+  </si>
+  <si>
+    <t>Brioșe</t>
+  </si>
+  <si>
+    <t>75 RON</t>
+  </si>
+  <si>
+    <t>2 biluțe/pungă (16 biluțe cioco)</t>
+  </si>
+  <si>
+    <t>45 RON</t>
+  </si>
+  <si>
+    <t>40 RON</t>
+  </si>
+  <si>
+    <t>Pachețel biluțe cioco</t>
+  </si>
+  <si>
+    <t>Băț Moș Nicolae</t>
+  </si>
+  <si>
+    <t>396 RON</t>
+  </si>
+  <si>
+    <t>Târgul de Crăciun</t>
+  </si>
+  <si>
+    <t>Brelocuri croșetate</t>
+  </si>
+  <si>
+    <t>80 RON</t>
+  </si>
+  <si>
+    <t>Glob brăduț carton</t>
+  </si>
+  <si>
+    <t>120 RON</t>
+  </si>
+  <si>
+    <t>96 RON</t>
+  </si>
+  <si>
+    <t>35 RON</t>
+  </si>
+  <si>
+    <t>36 RON</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>30 RON</t>
+  </si>
+  <si>
+    <t>20 RON</t>
+  </si>
+  <si>
+    <t>24 RON</t>
+  </si>
+  <si>
+    <t>Online (Facebook)</t>
+  </si>
+  <si>
+    <t>Glob normal</t>
+  </si>
+  <si>
+    <t>320 RON</t>
+  </si>
+  <si>
+    <t>Lumânare parfumată</t>
+  </si>
+  <si>
+    <t>160 RON</t>
+  </si>
+  <si>
+    <t>Flex</t>
+  </si>
+  <si>
+    <t>140 RON</t>
+  </si>
+  <si>
+    <t>Prieten</t>
+  </si>
+  <si>
+    <t>100 RON</t>
+  </si>
+  <si>
+    <t>108 RON</t>
+  </si>
+  <si>
+    <t>4129 RON</t>
+  </si>
+  <si>
+    <t>Bucati</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Globuri plastic rotunde</t>
+  </si>
+  <si>
+    <t>Globuri plastic inimă</t>
+  </si>
+  <si>
+    <t>Glue sticks pentru pistol de lipit (set)</t>
+  </si>
+  <si>
+    <t>10 RON</t>
+  </si>
+  <si>
+    <t>Decoratiuni lemn pentru globuri (set)</t>
+  </si>
+  <si>
+    <t>12 RON</t>
+  </si>
+  <si>
+    <t>Borcane mici</t>
+  </si>
+  <si>
+    <t>Lumânări pastile (set de 4)</t>
+  </si>
+  <si>
+    <t>32 RON</t>
+  </si>
+  <si>
+    <t>38 RON</t>
+  </si>
+  <si>
+    <t>Mărgele decorative (set)</t>
+  </si>
+  <si>
+    <t>18 RON</t>
+  </si>
+  <si>
+    <t>Bandă roșie</t>
+  </si>
+  <si>
+    <t>5 RON</t>
+  </si>
+  <si>
+    <t>Zăpadă artificială</t>
+  </si>
+  <si>
+    <t>Mini globuri polistiren (set)</t>
+  </si>
+  <si>
+    <t>Nr. crt.</t>
+  </si>
+  <si>
+    <t>*Investiție inițială + reinvestiții = 418,5 RON + 180 RON = investiție totală = 598,5 RON</t>
+  </si>
+  <si>
+    <t>Reinvestiții</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -69,12 +265,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -126,17 +328,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,34 +639,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="34.7109375" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D2" s="3" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,269 +696,1550 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2">
+        <v>45262</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="B5" s="7">
+        <v>45263</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7">
+        <v>45263</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="B8" s="7">
+        <v>45264</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="B9" s="7">
+        <v>45264</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="B10" s="7">
+        <v>45264</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="B11" s="7">
+        <v>45265</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="B12" s="7">
+        <v>45265</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="6">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="B13" s="7">
+        <v>45265</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="6">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="B14" s="7">
+        <v>45265</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="6">
+        <v>22</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="B15" s="7">
+        <v>45265</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="6">
+        <v>4</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>11</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="B16" s="7">
+        <v>45265</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>12</v>
+      </c>
+      <c r="B17" s="7">
+        <v>45265</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="B18" s="7">
+        <v>45265</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="6">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="B19" s="7">
+        <v>45266</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="6">
+        <v>5</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="B20" s="7">
+        <v>45266</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="6">
         <v>16</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="E20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>16</v>
+      </c>
+      <c r="B21" s="7">
+        <v>45266</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="6">
+        <v>7</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="B22" s="7">
+        <v>45266</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="6">
+        <v>2</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="B23" s="7">
+        <v>45266</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="6">
+        <v>6</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="B24" s="7">
+        <v>45266</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="6">
+        <v>6</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="B25" s="7">
+        <v>45266</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="6">
+        <v>2</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>21</v>
+      </c>
+      <c r="B26" s="7">
+        <v>45267</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="6">
+        <v>5</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>22</v>
+      </c>
+      <c r="B27" s="7">
+        <v>45267</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="6">
+        <v>4</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>23</v>
+      </c>
+      <c r="B28" s="7">
+        <v>45267</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>24</v>
+      </c>
+      <c r="B29" s="7">
+        <v>45267</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="6">
+        <v>4</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>25</v>
+      </c>
+      <c r="B30" s="7">
+        <v>45268</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>26</v>
+      </c>
+      <c r="B31" s="7">
+        <v>45268</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="6">
+        <v>4</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>27</v>
+      </c>
+      <c r="B32" s="7">
+        <v>45268</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="6">
+        <v>4</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>28</v>
+      </c>
+      <c r="B33" s="7">
+        <v>45268</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="6">
+        <v>3</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>29</v>
+      </c>
+      <c r="B34" s="7">
+        <v>45269</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="6">
+        <v>16</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>30</v>
+      </c>
+      <c r="B35" s="7">
+        <v>45269</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="6">
+        <v>6</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>31</v>
+      </c>
+      <c r="B36" s="7">
+        <v>45269</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>32</v>
+      </c>
+      <c r="B37" s="7">
+        <v>45269</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="6">
+        <v>2</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>33</v>
+      </c>
+      <c r="B38" s="7">
+        <v>45269</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>34</v>
+      </c>
+      <c r="B39" s="7">
+        <v>45269</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>35</v>
+      </c>
+      <c r="B40" s="7">
+        <v>45270</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="6">
+        <v>8</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>36</v>
+      </c>
+      <c r="B41" s="7">
+        <v>45270</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="6">
+        <v>4</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>37</v>
+      </c>
+      <c r="B42" s="7">
+        <v>45270</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>38</v>
+      </c>
+      <c r="B43" s="7">
+        <v>45270</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="6">
+        <v>4</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>39</v>
+      </c>
+      <c r="B44" s="7">
+        <v>45270</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="6">
+        <v>2</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>40</v>
+      </c>
+      <c r="B45" s="7">
+        <v>45271</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="6">
+        <v>4</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>41</v>
+      </c>
+      <c r="B46" s="7">
+        <v>45271</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="6">
+        <v>3</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>42</v>
+      </c>
+      <c r="B47" s="7">
+        <v>45272</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="6">
+        <v>5</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>43</v>
+      </c>
+      <c r="B48" s="7">
+        <v>45272</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="6">
+        <v>3</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>44</v>
+      </c>
+      <c r="B49" s="7">
+        <v>45273</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="6">
+        <v>5</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>45</v>
+      </c>
+      <c r="B50" s="7">
+        <v>45273</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="6">
+        <v>7</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>46</v>
+      </c>
+      <c r="B51" s="7">
+        <v>45273</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="6">
+        <v>4</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>47</v>
+      </c>
+      <c r="B52" s="7">
+        <v>45273</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="6">
+        <v>2</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>48</v>
+      </c>
+      <c r="B53" s="7">
+        <v>45273</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="6">
+        <v>1</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>49</v>
+      </c>
+      <c r="B54" s="7">
+        <v>45274</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="6">
+        <v>1</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>50</v>
+      </c>
+      <c r="B55" s="7">
+        <v>45274</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="6">
+        <v>5</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>51</v>
+      </c>
+      <c r="B56" s="7">
+        <v>45275</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="6">
+        <v>1</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>1</v>
+      </c>
+      <c r="B61" s="7">
+        <v>45269</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" s="6">
+        <v>12</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <v>2</v>
+      </c>
+      <c r="B62" s="7">
+        <v>45269</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62" s="6">
+        <v>8</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>3</v>
+      </c>
+      <c r="B63" s="7">
+        <v>45269</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" s="6">
+        <v>1</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>4</v>
+      </c>
+      <c r="B64" s="7">
+        <v>45269</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" s="6">
+        <v>4</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>5</v>
+      </c>
+      <c r="B65" s="7">
+        <v>45269</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" s="6">
+        <v>19</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <v>6</v>
+      </c>
+      <c r="B66" s="7">
+        <v>45269</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="6">
+        <v>4</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>7</v>
+      </c>
+      <c r="B67" s="7">
+        <v>45269</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" s="6">
+        <v>3</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>8</v>
+      </c>
+      <c r="B68" s="7">
+        <v>45269</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="6">
+        <v>1</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>9</v>
+      </c>
+      <c r="B69" s="7">
+        <v>45269</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D69" s="6">
+        <v>1</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>10</v>
+      </c>
+      <c r="B70" s="7">
+        <v>45269</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="6">
+        <v>1</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+      <c r="B71" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B59:C59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
